--- a/txt/go.xlsx
+++ b/txt/go.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17030"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse\pleiades\workspace\CardGame\txt\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
+    <workbookView windowWidth="23475" windowHeight="10455"/>
   </bookViews>
   <sheets>
     <sheet name="呉デッキ" sheetId="1" r:id="rId1"/>
@@ -17,91 +12,55 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="171027" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
   <si>
     <t>ID</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>名前</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>1:兵士　2:呪文</t>
-    <rPh sb="2" eb="4">
-      <t>ヘイシ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジュモン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>コスト</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>攻撃力</t>
-    <rPh sb="0" eb="3">
-      <t>コウゲキリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>HP</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>説明</t>
-    <rPh sb="0" eb="2">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>兵士</t>
-    <rPh sb="0" eb="2">
-      <t>ヘイシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>呪文</t>
-    <rPh sb="0" eb="2">
-      <t>ジュモン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="Meiryo UI"/>
-      <family val="2"/>
       <charset val="128"/>
     </font>
     <font>
@@ -109,19 +68,355 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
-      <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -129,9 +424,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -139,56 +676,90 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="桁区切り[0]" xfId="1" builtinId="6"/>
+    <cellStyle name="入力" xfId="2" builtinId="20"/>
+    <cellStyle name="桁区切り" xfId="3" builtinId="3"/>
+    <cellStyle name="通貨[0]" xfId="4" builtinId="7"/>
+    <cellStyle name="40% - アクセント 5" xfId="5" builtinId="47"/>
+    <cellStyle name="通貨" xfId="6" builtinId="4"/>
+    <cellStyle name="20% - アクセント 4" xfId="7" builtinId="42"/>
+    <cellStyle name="メモ" xfId="8" builtinId="10"/>
+    <cellStyle name="パーセント" xfId="9" builtinId="5"/>
+    <cellStyle name="ハイパーリンク" xfId="10" builtinId="8"/>
+    <cellStyle name="アクセント 2" xfId="11" builtinId="33"/>
+    <cellStyle name="訪問済ハイパーリンク" xfId="12" builtinId="9"/>
+    <cellStyle name="良い" xfId="13" builtinId="26"/>
+    <cellStyle name="警告文" xfId="14" builtinId="11"/>
+    <cellStyle name="リンクセル" xfId="15" builtinId="24"/>
+    <cellStyle name="タイトル" xfId="16" builtinId="15"/>
+    <cellStyle name="説明文" xfId="17" builtinId="53"/>
+    <cellStyle name="アクセント 6" xfId="18" builtinId="49"/>
+    <cellStyle name="出力" xfId="19" builtinId="21"/>
+    <cellStyle name="見出し 1" xfId="20" builtinId="16"/>
+    <cellStyle name="見出し 2" xfId="21" builtinId="17"/>
+    <cellStyle name="計算" xfId="22" builtinId="22"/>
+    <cellStyle name="見出し 3" xfId="23" builtinId="18"/>
+    <cellStyle name="見出し 4" xfId="24" builtinId="19"/>
+    <cellStyle name="60% - アクセント 5" xfId="25" builtinId="48"/>
+    <cellStyle name="チェックセル" xfId="26" builtinId="23"/>
+    <cellStyle name="40% - アクセント 1" xfId="27" builtinId="31"/>
+    <cellStyle name="集計" xfId="28" builtinId="25"/>
+    <cellStyle name="悪い" xfId="29" builtinId="27"/>
+    <cellStyle name="どちらでもない" xfId="30" builtinId="28"/>
+    <cellStyle name="アクセント 1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - アクセント 1" xfId="32" builtinId="30"/>
+    <cellStyle name="20% - アクセント 5" xfId="33" builtinId="46"/>
+    <cellStyle name="60% - アクセント 1" xfId="34" builtinId="32"/>
+    <cellStyle name="20% - アクセント 2" xfId="35" builtinId="34"/>
+    <cellStyle name="40% - アクセント 2" xfId="36" builtinId="35"/>
+    <cellStyle name="20% - アクセント 6" xfId="37" builtinId="50"/>
+    <cellStyle name="60% - アクセント 2" xfId="38" builtinId="36"/>
+    <cellStyle name="アクセント 3" xfId="39" builtinId="37"/>
+    <cellStyle name="20% - アクセント 3" xfId="40" builtinId="38"/>
+    <cellStyle name="40% - アクセント 3" xfId="41" builtinId="39"/>
+    <cellStyle name="60% - アクセント 3" xfId="42" builtinId="40"/>
+    <cellStyle name="アクセント 4" xfId="43" builtinId="41"/>
+    <cellStyle name="40% - アクセント 4" xfId="44" builtinId="43"/>
+    <cellStyle name="60% - アクセント 4" xfId="45" builtinId="44"/>
+    <cellStyle name="アクセント 5" xfId="46" builtinId="45"/>
+    <cellStyle name="40% - アクセント 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - アクセント 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFD7D7D7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
+      <font/>
       <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
+        <patternFill/>
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
+    <tableStyle name="MySqlDefault" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="カードリスト"/>
@@ -331,7 +902,7 @@
             <v>1</v>
           </cell>
           <cell r="E7">
-            <v>-1</v>
+            <v>2</v>
           </cell>
           <cell r="F7">
             <v>-1</v>
@@ -354,7 +925,7 @@
             <v>2</v>
           </cell>
           <cell r="E8">
-            <v>-1</v>
+            <v>3</v>
           </cell>
           <cell r="F8">
             <v>-1</v>
@@ -377,7 +948,7 @@
             <v>2</v>
           </cell>
           <cell r="E9">
-            <v>-1</v>
+            <v>1</v>
           </cell>
           <cell r="F9">
             <v>-1</v>
@@ -400,7 +971,7 @@
             <v>4</v>
           </cell>
           <cell r="E10">
-            <v>-1</v>
+            <v>6</v>
           </cell>
           <cell r="F10">
             <v>-1</v>
@@ -423,7 +994,7 @@
             <v>2</v>
           </cell>
           <cell r="E11">
-            <v>-1</v>
+            <v>2</v>
           </cell>
           <cell r="F11">
             <v>-1</v>
@@ -629,7 +1200,7 @@
             <v>3</v>
           </cell>
           <cell r="E21">
-            <v>-1</v>
+            <v>2</v>
           </cell>
           <cell r="F21">
             <v>-1</v>
@@ -652,7 +1223,7 @@
             <v>3</v>
           </cell>
           <cell r="E22">
-            <v>-1</v>
+            <v>3</v>
           </cell>
           <cell r="F22">
             <v>-1</v>
@@ -675,7 +1246,7 @@
             <v>2</v>
           </cell>
           <cell r="E23">
-            <v>-1</v>
+            <v>2</v>
           </cell>
           <cell r="F23">
             <v>-1</v>
@@ -841,7 +1412,7 @@
             <v>0</v>
           </cell>
           <cell r="E31">
-            <v>-1</v>
+            <v>2</v>
           </cell>
           <cell r="F31">
             <v>-1</v>
@@ -864,7 +1435,7 @@
             <v>4</v>
           </cell>
           <cell r="E32">
-            <v>-1</v>
+            <v>3</v>
           </cell>
           <cell r="F32">
             <v>-1</v>
@@ -887,7 +1458,7 @@
             <v>3</v>
           </cell>
           <cell r="E33">
-            <v>-1</v>
+            <v>3</v>
           </cell>
           <cell r="F33">
             <v>-1</v>
@@ -910,7 +1481,7 @@
             <v>5</v>
           </cell>
           <cell r="E34">
-            <v>-1</v>
+            <v>8</v>
           </cell>
           <cell r="F34">
             <v>-1</v>
@@ -1145,7 +1716,7 @@
             <v>3</v>
           </cell>
           <cell r="E45">
-            <v>-1</v>
+            <v>2</v>
           </cell>
           <cell r="F45">
             <v>-1</v>
@@ -1371,7 +1942,7 @@
             <v>2</v>
           </cell>
           <cell r="E57">
-            <v>-1</v>
+            <v>1</v>
           </cell>
           <cell r="F57">
             <v>-1</v>
@@ -1431,7 +2002,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1464,26 +2035,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1516,23 +2070,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1675,34 +2212,30 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A33" sqref="A33"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="7" max="7" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="18" width="4.453125" customWidth="1"/>
-    <col min="19" max="21" width="4.54296875" customWidth="1"/>
+    <col min="7" max="7" width="20.45" customWidth="1"/>
+    <col min="9" max="18" width="4.45" customWidth="1"/>
+    <col min="19" max="21" width="4.54166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1771,7 +2304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1848,7 +2381,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1877,7 +2410,7 @@
         <v>雄叫び：1枚ドロー</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1906,7 +2439,7 @@
         <v>雄叫び：1枚ドロー</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1935,7 +2468,7 @@
         <v>雄叫び：1枚ドロー</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1964,7 +2497,7 @@
         <v>雄叫び：敵1体に2ダメージ</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1993,7 +2526,7 @@
         <v>雄叫び：敵1体に2ダメージ</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>3</v>
       </c>
@@ -2022,7 +2555,7 @@
         <v>雄叫び：敵1体に2ダメージ</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>4</v>
       </c>
@@ -2051,7 +2584,7 @@
         <v>呪文ダメージ+1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>4</v>
       </c>
@@ -2080,7 +2613,7 @@
         <v>呪文ダメージ+1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>4</v>
       </c>
@@ -2109,7 +2642,7 @@
         <v>呪文ダメージ+1</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>5</v>
       </c>
@@ -2127,7 +2660,7 @@
       </c>
       <c r="E12">
         <f>IF(INDEX([1]カードリスト!E:E,MATCH($A12,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!E:E,MATCH($A12,[1]カードリスト!$A:$A,0)))</f>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <f>IF(INDEX([1]カードリスト!F:F,MATCH($A12,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!F:F,MATCH($A12,[1]カードリスト!$A:$A,0)))</f>
@@ -2138,7 +2671,7 @@
         <v>敵兵士1体に2ダメージ</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>5</v>
       </c>
@@ -2156,7 +2689,7 @@
       </c>
       <c r="E13">
         <f>IF(INDEX([1]カードリスト!E:E,MATCH($A13,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!E:E,MATCH($A13,[1]カードリスト!$A:$A,0)))</f>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <f>IF(INDEX([1]カードリスト!F:F,MATCH($A13,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!F:F,MATCH($A13,[1]カードリスト!$A:$A,0)))</f>
@@ -2167,7 +2700,7 @@
         <v>敵兵士1体に2ダメージ</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>5</v>
       </c>
@@ -2185,7 +2718,7 @@
       </c>
       <c r="E14">
         <f>IF(INDEX([1]カードリスト!E:E,MATCH($A14,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!E:E,MATCH($A14,[1]カードリスト!$A:$A,0)))</f>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <f>IF(INDEX([1]カードリスト!F:F,MATCH($A14,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!F:F,MATCH($A14,[1]カードリスト!$A:$A,0)))</f>
@@ -2196,7 +2729,7 @@
         <v>敵兵士1体に2ダメージ</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>6</v>
       </c>
@@ -2214,7 +2747,7 @@
       </c>
       <c r="E15">
         <f>IF(INDEX([1]カードリスト!E:E,MATCH($A15,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!E:E,MATCH($A15,[1]カードリスト!$A:$A,0)))</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <f>IF(INDEX([1]カードリスト!F:F,MATCH($A15,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!F:F,MATCH($A15,[1]カードリスト!$A:$A,0)))</f>
@@ -2225,7 +2758,7 @@
         <v>敵1体に3ダメージ</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>6</v>
       </c>
@@ -2243,7 +2776,7 @@
       </c>
       <c r="E16">
         <f>IF(INDEX([1]カードリスト!E:E,MATCH($A16,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!E:E,MATCH($A16,[1]カードリスト!$A:$A,0)))</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <f>IF(INDEX([1]カードリスト!F:F,MATCH($A16,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!F:F,MATCH($A16,[1]カードリスト!$A:$A,0)))</f>
@@ -2254,7 +2787,7 @@
         <v>敵1体に3ダメージ</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>6</v>
       </c>
@@ -2272,7 +2805,7 @@
       </c>
       <c r="E17">
         <f>IF(INDEX([1]カードリスト!E:E,MATCH($A17,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!E:E,MATCH($A17,[1]カードリスト!$A:$A,0)))</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <f>IF(INDEX([1]カードリスト!F:F,MATCH($A17,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!F:F,MATCH($A17,[1]カードリスト!$A:$A,0)))</f>
@@ -2283,7 +2816,7 @@
         <v>敵1体に3ダメージ</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>7</v>
       </c>
@@ -2301,7 +2834,7 @@
       </c>
       <c r="E18">
         <f>IF(INDEX([1]カードリスト!E:E,MATCH($A18,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!E:E,MATCH($A18,[1]カードリスト!$A:$A,0)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <f>IF(INDEX([1]カードリスト!F:F,MATCH($A18,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!F:F,MATCH($A18,[1]カードリスト!$A:$A,0)))</f>
@@ -2312,7 +2845,7 @@
         <v>全ての敵兵士に1ダメージ</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>7</v>
       </c>
@@ -2330,7 +2863,7 @@
       </c>
       <c r="E19">
         <f>IF(INDEX([1]カードリスト!E:E,MATCH($A19,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!E:E,MATCH($A19,[1]カードリスト!$A:$A,0)))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <f>IF(INDEX([1]カードリスト!F:F,MATCH($A19,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!F:F,MATCH($A19,[1]カードリスト!$A:$A,0)))</f>
@@ -2341,7 +2874,7 @@
         <v>全ての敵兵士に1ダメージ</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>8</v>
       </c>
@@ -2359,7 +2892,7 @@
       </c>
       <c r="E20">
         <f>IF(INDEX([1]カードリスト!E:E,MATCH($A20,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!E:E,MATCH($A20,[1]カードリスト!$A:$A,0)))</f>
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F20">
         <f>IF(INDEX([1]カードリスト!F:F,MATCH($A20,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!F:F,MATCH($A20,[1]カードリスト!$A:$A,0)))</f>
@@ -2370,7 +2903,7 @@
         <v>敵1体に6ダメージ</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>8</v>
       </c>
@@ -2388,7 +2921,7 @@
       </c>
       <c r="E21">
         <f>IF(INDEX([1]カードリスト!E:E,MATCH($A21,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!E:E,MATCH($A21,[1]カードリスト!$A:$A,0)))</f>
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F21">
         <f>IF(INDEX([1]カードリスト!F:F,MATCH($A21,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!F:F,MATCH($A21,[1]カードリスト!$A:$A,0)))</f>
@@ -2399,7 +2932,7 @@
         <v>敵1体に6ダメージ</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>9</v>
       </c>
@@ -2417,7 +2950,7 @@
       </c>
       <c r="E22">
         <f>IF(INDEX([1]カードリスト!E:E,MATCH($A22,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!E:E,MATCH($A22,[1]カードリスト!$A:$A,0)))</f>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <f>IF(INDEX([1]カードリスト!F:F,MATCH($A22,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!F:F,MATCH($A22,[1]カードリスト!$A:$A,0)))</f>
@@ -2428,7 +2961,7 @@
         <v>2枚ドロー</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>9</v>
       </c>
@@ -2446,7 +2979,7 @@
       </c>
       <c r="E23">
         <f>IF(INDEX([1]カードリスト!E:E,MATCH($A23,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!E:E,MATCH($A23,[1]カードリスト!$A:$A,0)))</f>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <f>IF(INDEX([1]カードリスト!F:F,MATCH($A23,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!F:F,MATCH($A23,[1]カードリスト!$A:$A,0)))</f>
@@ -2457,7 +2990,7 @@
         <v>2枚ドロー</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>9</v>
       </c>
@@ -2475,7 +3008,7 @@
       </c>
       <c r="E24">
         <f>IF(INDEX([1]カードリスト!E:E,MATCH($A24,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!E:E,MATCH($A24,[1]カードリスト!$A:$A,0)))</f>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <f>IF(INDEX([1]カードリスト!F:F,MATCH($A24,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!F:F,MATCH($A24,[1]カードリスト!$A:$A,0)))</f>
@@ -2486,7 +3019,7 @@
         <v>2枚ドロー</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>10</v>
       </c>
@@ -2515,7 +3048,7 @@
         <v>敵兵士1体を破壊</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>10</v>
       </c>
@@ -2544,7 +3077,7 @@
         <v>敵兵士1体を破壊</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>42</v>
       </c>
@@ -2573,7 +3106,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>43</v>
       </c>
@@ -2602,7 +3135,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>48</v>
       </c>
@@ -2631,7 +3164,7 @@
         <v>挑発</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>48</v>
       </c>
@@ -2660,7 +3193,7 @@
         <v>挑発</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>49</v>
       </c>
@@ -2689,14 +3222,14 @@
         <v>挑発</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1">
       <c r="A32">
         <v>-1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/txt/go.xlsx
+++ b/txt/go.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17030"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse\pleiades\workspace\CardGame\txt\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23475" windowHeight="10455"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23472" windowHeight="10452"/>
   </bookViews>
   <sheets>
     <sheet name="呉デッキ" sheetId="1" r:id="rId1"/>
@@ -12,12 +17,12 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ID</t>
   </si>
@@ -49,14 +54,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -68,355 +67,25 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="游ゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="游ゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="游ゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="游ゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="6"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -424,251 +93,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -680,56 +107,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="桁区切り[0]" xfId="1" builtinId="6"/>
-    <cellStyle name="入力" xfId="2" builtinId="20"/>
-    <cellStyle name="桁区切り" xfId="3" builtinId="3"/>
-    <cellStyle name="通貨[0]" xfId="4" builtinId="7"/>
-    <cellStyle name="40% - アクセント 5" xfId="5" builtinId="47"/>
-    <cellStyle name="通貨" xfId="6" builtinId="4"/>
-    <cellStyle name="20% - アクセント 4" xfId="7" builtinId="42"/>
-    <cellStyle name="メモ" xfId="8" builtinId="10"/>
-    <cellStyle name="パーセント" xfId="9" builtinId="5"/>
-    <cellStyle name="ハイパーリンク" xfId="10" builtinId="8"/>
-    <cellStyle name="アクセント 2" xfId="11" builtinId="33"/>
-    <cellStyle name="訪問済ハイパーリンク" xfId="12" builtinId="9"/>
-    <cellStyle name="良い" xfId="13" builtinId="26"/>
-    <cellStyle name="警告文" xfId="14" builtinId="11"/>
-    <cellStyle name="リンクセル" xfId="15" builtinId="24"/>
-    <cellStyle name="タイトル" xfId="16" builtinId="15"/>
-    <cellStyle name="説明文" xfId="17" builtinId="53"/>
-    <cellStyle name="アクセント 6" xfId="18" builtinId="49"/>
-    <cellStyle name="出力" xfId="19" builtinId="21"/>
-    <cellStyle name="見出し 1" xfId="20" builtinId="16"/>
-    <cellStyle name="見出し 2" xfId="21" builtinId="17"/>
-    <cellStyle name="計算" xfId="22" builtinId="22"/>
-    <cellStyle name="見出し 3" xfId="23" builtinId="18"/>
-    <cellStyle name="見出し 4" xfId="24" builtinId="19"/>
-    <cellStyle name="60% - アクセント 5" xfId="25" builtinId="48"/>
-    <cellStyle name="チェックセル" xfId="26" builtinId="23"/>
-    <cellStyle name="40% - アクセント 1" xfId="27" builtinId="31"/>
-    <cellStyle name="集計" xfId="28" builtinId="25"/>
-    <cellStyle name="悪い" xfId="29" builtinId="27"/>
-    <cellStyle name="どちらでもない" xfId="30" builtinId="28"/>
-    <cellStyle name="アクセント 1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - アクセント 1" xfId="32" builtinId="30"/>
-    <cellStyle name="20% - アクセント 5" xfId="33" builtinId="46"/>
-    <cellStyle name="60% - アクセント 1" xfId="34" builtinId="32"/>
-    <cellStyle name="20% - アクセント 2" xfId="35" builtinId="34"/>
-    <cellStyle name="40% - アクセント 2" xfId="36" builtinId="35"/>
-    <cellStyle name="20% - アクセント 6" xfId="37" builtinId="50"/>
-    <cellStyle name="60% - アクセント 2" xfId="38" builtinId="36"/>
-    <cellStyle name="アクセント 3" xfId="39" builtinId="37"/>
-    <cellStyle name="20% - アクセント 3" xfId="40" builtinId="38"/>
-    <cellStyle name="40% - アクセント 3" xfId="41" builtinId="39"/>
-    <cellStyle name="60% - アクセント 3" xfId="42" builtinId="40"/>
-    <cellStyle name="アクセント 4" xfId="43" builtinId="41"/>
-    <cellStyle name="40% - アクセント 4" xfId="44" builtinId="43"/>
-    <cellStyle name="60% - アクセント 4" xfId="45" builtinId="44"/>
-    <cellStyle name="アクセント 5" xfId="46" builtinId="45"/>
-    <cellStyle name="40% - アクセント 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - アクセント 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -742,12 +121,7 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill/>
-      </fill>
-    </dxf>
+    <dxf/>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
     <tableStyle name="MySqlDefault" count="2">
@@ -755,11 +129,19 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="カードリスト"/>
@@ -2216,26 +1598,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="20.45" customWidth="1"/>
-    <col min="9" max="18" width="4.45" customWidth="1"/>
-    <col min="19" max="21" width="4.54166666666667" customWidth="1"/>
+    <col min="7" max="7" width="20.453125" customWidth="1"/>
+    <col min="9" max="18" width="4.453125" customWidth="1"/>
+    <col min="19" max="21" width="4.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2304,7 +1684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2381,7 +1761,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2410,7 +1790,7 @@
         <v>雄叫び：1枚ドロー</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2439,7 +1819,7 @@
         <v>雄叫び：1枚ドロー</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2468,7 +1848,7 @@
         <v>雄叫び：1枚ドロー</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2497,7 +1877,7 @@
         <v>雄叫び：敵1体に2ダメージ</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -2526,7 +1906,7 @@
         <v>雄叫び：敵1体に2ダメージ</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
@@ -2555,7 +1935,7 @@
         <v>雄叫び：敵1体に2ダメージ</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
@@ -2584,7 +1964,7 @@
         <v>呪文ダメージ+1</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4</v>
       </c>
@@ -2613,7 +1993,7 @@
         <v>呪文ダメージ+1</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>4</v>
       </c>
@@ -2642,7 +2022,7 @@
         <v>呪文ダメージ+1</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5</v>
       </c>
@@ -2671,7 +2051,7 @@
         <v>敵兵士1体に2ダメージ</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5</v>
       </c>
@@ -2700,7 +2080,7 @@
         <v>敵兵士1体に2ダメージ</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>5</v>
       </c>
@@ -2729,7 +2109,7 @@
         <v>敵兵士1体に2ダメージ</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>6</v>
       </c>
@@ -2758,7 +2138,7 @@
         <v>敵1体に3ダメージ</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>6</v>
       </c>
@@ -2787,7 +2167,7 @@
         <v>敵1体に3ダメージ</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>6</v>
       </c>
@@ -2816,7 +2196,7 @@
         <v>敵1体に3ダメージ</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>7</v>
       </c>
@@ -2845,7 +2225,7 @@
         <v>全ての敵兵士に1ダメージ</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>7</v>
       </c>
@@ -2874,7 +2254,7 @@
         <v>全ての敵兵士に1ダメージ</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>8</v>
       </c>
@@ -2903,7 +2283,7 @@
         <v>敵1体に6ダメージ</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>8</v>
       </c>
@@ -2932,7 +2312,7 @@
         <v>敵1体に6ダメージ</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>9</v>
       </c>
@@ -2961,7 +2341,7 @@
         <v>2枚ドロー</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>9</v>
       </c>
@@ -2990,7 +2370,7 @@
         <v>2枚ドロー</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>9</v>
       </c>
@@ -3019,7 +2399,7 @@
         <v>2枚ドロー</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>10</v>
       </c>
@@ -3048,7 +2428,7 @@
         <v>敵兵士1体を破壊</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>10</v>
       </c>
@@ -3077,7 +2457,7 @@
         <v>敵兵士1体を破壊</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>42</v>
       </c>
@@ -3106,7 +2486,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>43</v>
       </c>
@@ -3135,7 +2515,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>48</v>
       </c>
@@ -3164,7 +2544,7 @@
         <v>挑発</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>48</v>
       </c>
@@ -3193,7 +2573,7 @@
         <v>挑発</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>49</v>
       </c>
@@ -3222,14 +2602,14 @@
         <v>挑発</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>-1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/txt/go.xlsx
+++ b/txt/go.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23472" windowHeight="10452"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23472" windowHeight="10452"/>
   </bookViews>
   <sheets>
     <sheet name="呉デッキ" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -49,6 +49,48 @@
   </si>
   <si>
     <t>呪文</t>
+  </si>
+  <si>
+    <t>周瑜</t>
+  </si>
+  <si>
+    <t>陸遜</t>
+  </si>
+  <si>
+    <t>孫尚香</t>
+  </si>
+  <si>
+    <t>徐夫人</t>
+  </si>
+  <si>
+    <t>稲妻</t>
+  </si>
+  <si>
+    <t>火の玉</t>
+  </si>
+  <si>
+    <t>炎上</t>
+  </si>
+  <si>
+    <t>赤壁の大火</t>
+  </si>
+  <si>
+    <t>知性</t>
+  </si>
+  <si>
+    <t>恐怖</t>
+  </si>
+  <si>
+    <t>中級歩兵</t>
+  </si>
+  <si>
+    <t>上級歩兵</t>
+  </si>
+  <si>
+    <t>中級槍兵</t>
+  </si>
+  <si>
+    <t>上級槍兵</t>
   </si>
 </sst>
 </file>
@@ -110,7 +152,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -121,11 +163,9 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf/>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
-    <tableStyle name="MySqlDefault" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
+    <tableStyle name="MySqlDefault" count="1">
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
@@ -147,6 +187,7 @@
       <sheetName val="カードリスト"/>
       <sheetName val="Sheet1"/>
       <sheetName val="Sheet1 (2)"/>
+      <sheetName val="Sheet2"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -192,13 +233,13 @@
             <v>8</v>
           </cell>
           <cell r="E3">
-            <v>6</v>
+            <v>4</v>
           </cell>
           <cell r="F3">
-            <v>8</v>
+            <v>7</v>
           </cell>
           <cell r="G3" t="str">
-            <v>雄叫び：全ての敵に3ダメージ</v>
+            <v>雄叫び：「赤壁の大火」を2枚手札に加える</v>
           </cell>
         </row>
         <row r="4">
@@ -221,7 +262,7 @@
             <v>4</v>
           </cell>
           <cell r="G4" t="str">
-            <v>雄叫び：1枚ドロー</v>
+            <v>雄叫び：カードを1枚引く</v>
           </cell>
         </row>
         <row r="5">
@@ -373,7 +414,7 @@
             <v>2</v>
           </cell>
           <cell r="D11">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="E11">
             <v>2</v>
@@ -382,7 +423,7 @@
             <v>-1</v>
           </cell>
           <cell r="G11" t="str">
-            <v>2枚ドロー</v>
+            <v>カードを2枚引く</v>
           </cell>
         </row>
         <row r="12">
@@ -415,7 +456,7 @@
         </row>
         <row r="14">
           <cell r="A14">
-            <v>11</v>
+            <v>1001</v>
           </cell>
           <cell r="B14" t="str">
             <v>劉備</v>
@@ -438,7 +479,7 @@
         </row>
         <row r="15">
           <cell r="A15">
-            <v>12</v>
+            <v>1002</v>
           </cell>
           <cell r="B15" t="str">
             <v>関羽</v>
@@ -455,10 +496,13 @@
           <cell r="F15">
             <v>9</v>
           </cell>
+          <cell r="G15" t="str">
+            <v>無し</v>
+          </cell>
         </row>
         <row r="16">
           <cell r="A16">
-            <v>13</v>
+            <v>1003</v>
           </cell>
           <cell r="B16" t="str">
             <v>張飛</v>
@@ -475,10 +519,13 @@
           <cell r="F16">
             <v>6</v>
           </cell>
+          <cell r="G16" t="str">
+            <v>無し</v>
+          </cell>
         </row>
         <row r="17">
           <cell r="A17">
-            <v>14</v>
+            <v>1004</v>
           </cell>
           <cell r="B17" t="str">
             <v>黄忠</v>
@@ -501,7 +548,7 @@
         </row>
         <row r="18">
           <cell r="A18">
-            <v>15</v>
+            <v>1005</v>
           </cell>
           <cell r="B18" t="str">
             <v>魏延</v>
@@ -524,7 +571,7 @@
         </row>
         <row r="19">
           <cell r="A19">
-            <v>16</v>
+            <v>1006</v>
           </cell>
           <cell r="B19" t="str">
             <v>関銀屏</v>
@@ -547,7 +594,7 @@
         </row>
         <row r="20">
           <cell r="A20">
-            <v>17</v>
+            <v>1007</v>
           </cell>
           <cell r="B20" t="str">
             <v>甘皇后</v>
@@ -562,7 +609,7 @@
             <v>1</v>
           </cell>
           <cell r="F20">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="G20" t="str">
             <v>雄叫び：味方1体のHP+2</v>
@@ -570,7 +617,7 @@
         </row>
         <row r="21">
           <cell r="A21">
-            <v>18</v>
+            <v>1008</v>
           </cell>
           <cell r="B21" t="str">
             <v>援軍</v>
@@ -579,7 +626,7 @@
             <v>2</v>
           </cell>
           <cell r="D21">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="E21">
             <v>2</v>
@@ -593,7 +640,7 @@
         </row>
         <row r="22">
           <cell r="A22">
-            <v>19</v>
+            <v>1009</v>
           </cell>
           <cell r="B22" t="str">
             <v>巨大化</v>
@@ -616,7 +663,7 @@
         </row>
         <row r="23">
           <cell r="A23">
-            <v>20</v>
+            <v>1010</v>
           </cell>
           <cell r="B23" t="str">
             <v>自然</v>
@@ -634,7 +681,7 @@
             <v>-1</v>
           </cell>
           <cell r="G23" t="str">
-            <v>マナ+1　味方軍師HP+2</v>
+            <v>最大マナ+1　味方軍師HP+2</v>
           </cell>
         </row>
         <row r="24">
@@ -644,7 +691,7 @@
         </row>
         <row r="25">
           <cell r="A25">
-            <v>21</v>
+            <v>2001</v>
           </cell>
           <cell r="B25" t="str">
             <v>曹操</v>
@@ -667,7 +714,7 @@
         </row>
         <row r="26">
           <cell r="A26">
-            <v>22</v>
+            <v>2002</v>
           </cell>
           <cell r="B26" t="str">
             <v>夏侯惇</v>
@@ -690,7 +737,7 @@
         </row>
         <row r="27">
           <cell r="A27">
-            <v>23</v>
+            <v>2003</v>
           </cell>
           <cell r="B27" t="str">
             <v>張ｺｳ</v>
@@ -713,7 +760,7 @@
         </row>
         <row r="28">
           <cell r="A28">
-            <v>24</v>
+            <v>2004</v>
           </cell>
           <cell r="B28" t="str">
             <v>郭嘉</v>
@@ -731,12 +778,12 @@
             <v>3</v>
           </cell>
           <cell r="G28" t="str">
-            <v>全ての味方兵士は突撃を得る</v>
+            <v>召喚した全ての味方兵士は突撃を得る</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29">
-            <v>25</v>
+            <v>2005</v>
           </cell>
           <cell r="B29" t="str">
             <v>ﾎｳ娥</v>
@@ -759,7 +806,7 @@
         </row>
         <row r="30">
           <cell r="A30">
-            <v>26</v>
+            <v>2006</v>
           </cell>
           <cell r="B30" t="str">
             <v>王異</v>
@@ -777,12 +824,12 @@
             <v>2</v>
           </cell>
           <cell r="G30" t="str">
-            <v>敵兵士1体の攻撃力-2</v>
+            <v>雄叫び：敵兵士1体の攻撃力-2</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31">
-            <v>27</v>
+            <v>2007</v>
           </cell>
           <cell r="B31" t="str">
             <v>弱体化</v>
@@ -794,18 +841,18 @@
             <v>0</v>
           </cell>
           <cell r="E31">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="F31">
             <v>-1</v>
           </cell>
           <cell r="G31" t="str">
-            <v>このターン敵兵士の攻撃力-2</v>
+            <v>このターン敵兵士1体の攻撃力-3</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32">
-            <v>28</v>
+            <v>2008</v>
           </cell>
           <cell r="B32" t="str">
             <v>突撃召喚</v>
@@ -828,7 +875,7 @@
         </row>
         <row r="33">
           <cell r="A33">
-            <v>29</v>
+            <v>2009</v>
           </cell>
           <cell r="B33" t="str">
             <v>乱撃</v>
@@ -837,21 +884,21 @@
             <v>2</v>
           </cell>
           <cell r="D33">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="E33">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="F33">
             <v>-1</v>
           </cell>
           <cell r="G33" t="str">
-            <v>敵兵士1体とその両隣の兵士に3ダメージ</v>
+            <v>全ての敵兵士に2ダメージ</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34">
-            <v>30</v>
+            <v>2010</v>
           </cell>
           <cell r="B34" t="str">
             <v>切断</v>
@@ -879,7 +926,7 @@
         </row>
         <row r="36">
           <cell r="A36">
-            <v>31</v>
+            <v>3001</v>
           </cell>
           <cell r="B36" t="str">
             <v>呂布</v>
@@ -902,7 +949,7 @@
         </row>
         <row r="37">
           <cell r="A37">
-            <v>32</v>
+            <v>3002</v>
           </cell>
           <cell r="B37" t="str">
             <v>張角</v>
@@ -911,7 +958,7 @@
             <v>1</v>
           </cell>
           <cell r="D37">
-            <v>8</v>
+            <v>6</v>
           </cell>
           <cell r="E37">
             <v>3</v>
@@ -920,12 +967,12 @@
             <v>5</v>
           </cell>
           <cell r="G37" t="str">
-            <v>自分の場が埋まるまで中級歩兵を召喚</v>
+            <v>自分の場が埋まるまで初級歩兵を召喚</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38">
-            <v>33</v>
+            <v>3003</v>
           </cell>
           <cell r="B38" t="str">
             <v>高順</v>
@@ -948,7 +995,7 @@
         </row>
         <row r="39">
           <cell r="A39">
-            <v>34</v>
+            <v>3004</v>
           </cell>
           <cell r="B39" t="str">
             <v>李儒</v>
@@ -971,7 +1018,7 @@
         </row>
         <row r="40">
           <cell r="A40">
-            <v>35</v>
+            <v>3005</v>
           </cell>
           <cell r="B40" t="str">
             <v>祝融</v>
@@ -989,12 +1036,12 @@
             <v>3</v>
           </cell>
           <cell r="G40" t="str">
-            <v>挑発、断末魔：中級槍兵を召喚</v>
+            <v>挑発、断末魔：初級槍兵を召喚</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41">
-            <v>36</v>
+            <v>3006</v>
           </cell>
           <cell r="B41" t="str">
             <v>厳氏</v>
@@ -1003,21 +1050,21 @@
             <v>1</v>
           </cell>
           <cell r="D41">
+            <v>5</v>
+          </cell>
+          <cell r="E41">
+            <v>2</v>
+          </cell>
+          <cell r="F41">
             <v>3</v>
           </cell>
-          <cell r="E41">
-            <v>2</v>
-          </cell>
-          <cell r="F41">
-            <v>1</v>
-          </cell>
           <cell r="G41" t="str">
-            <v>雄叫び：両プレイヤーのランダムな兵士1体を破壊</v>
+            <v>雄叫び：敵兵士1体を破壊　全ての味方兵士に2ダメージ</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42">
-            <v>37</v>
+            <v>3007</v>
           </cell>
           <cell r="B42" t="str">
             <v>公孫瓚</v>
@@ -1040,7 +1087,7 @@
         </row>
         <row r="43">
           <cell r="A43">
-            <v>38</v>
+            <v>3008</v>
           </cell>
           <cell r="B43" t="str">
             <v>袁紹</v>
@@ -1063,7 +1110,7 @@
         </row>
         <row r="44">
           <cell r="A44">
-            <v>39</v>
+            <v>3009</v>
           </cell>
           <cell r="B44" t="str">
             <v>貂蝉</v>
@@ -1086,7 +1133,7 @@
         </row>
         <row r="45">
           <cell r="A45">
-            <v>40</v>
+            <v>3010</v>
           </cell>
           <cell r="B45" t="str">
             <v>破滅</v>
@@ -1095,98 +1142,130 @@
             <v>2</v>
           </cell>
           <cell r="D45">
+            <v>4</v>
+          </cell>
+          <cell r="E45">
             <v>3</v>
-          </cell>
-          <cell r="E45">
-            <v>2</v>
           </cell>
           <cell r="F45">
             <v>-1</v>
           </cell>
           <cell r="G45" t="str">
-            <v>全ての兵士に2ダメージ</v>
+            <v>全ての兵士に3ダメージ</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>共通</v>
           </cell>
         </row>
         <row r="47">
-          <cell r="A47" t="str">
-            <v>共通</v>
+          <cell r="A47">
+            <v>4001</v>
+          </cell>
+          <cell r="B47" t="str">
+            <v>初級歩兵</v>
+          </cell>
+          <cell r="C47">
+            <v>1</v>
+          </cell>
+          <cell r="D47">
+            <v>1</v>
+          </cell>
+          <cell r="E47">
+            <v>1</v>
+          </cell>
+          <cell r="F47">
+            <v>1</v>
+          </cell>
+          <cell r="G47" t="str">
+            <v>無し</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48">
-            <v>41</v>
+            <v>4002</v>
           </cell>
           <cell r="B48" t="str">
-            <v>初級歩兵</v>
+            <v>中級歩兵</v>
           </cell>
           <cell r="C48">
             <v>1</v>
           </cell>
           <cell r="D48">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="E48">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="F48">
-            <v>1</v>
+            <v>3</v>
+          </cell>
+          <cell r="G48" t="str">
+            <v>無し</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49">
-            <v>42</v>
+            <v>4003</v>
           </cell>
           <cell r="B49" t="str">
-            <v>中級歩兵</v>
+            <v>上級歩兵</v>
           </cell>
           <cell r="C49">
             <v>1</v>
           </cell>
           <cell r="D49">
-            <v>3</v>
+            <v>5</v>
           </cell>
           <cell r="E49">
-            <v>3</v>
+            <v>5</v>
           </cell>
           <cell r="F49">
-            <v>3</v>
+            <v>5</v>
+          </cell>
+          <cell r="G49" t="str">
+            <v>無し</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50">
-            <v>43</v>
+            <v>4004</v>
           </cell>
           <cell r="B50" t="str">
-            <v>上級歩兵</v>
+            <v>初級騎兵</v>
           </cell>
           <cell r="C50">
             <v>1</v>
           </cell>
           <cell r="D50">
-            <v>5</v>
+            <v>1</v>
           </cell>
           <cell r="E50">
-            <v>5</v>
+            <v>1</v>
           </cell>
           <cell r="F50">
-            <v>5</v>
+            <v>1</v>
+          </cell>
+          <cell r="G50" t="str">
+            <v>突撃</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51">
-            <v>44</v>
+            <v>4005</v>
           </cell>
           <cell r="B51" t="str">
-            <v>初級騎兵</v>
+            <v>中級騎兵</v>
           </cell>
           <cell r="C51">
             <v>1</v>
           </cell>
           <cell r="D51">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="E51">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="F51">
             <v>1</v>
@@ -1197,22 +1276,22 @@
         </row>
         <row r="52">
           <cell r="A52">
-            <v>45</v>
+            <v>4006</v>
           </cell>
           <cell r="B52" t="str">
-            <v>中級騎兵</v>
+            <v>上級騎兵</v>
           </cell>
           <cell r="C52">
             <v>1</v>
           </cell>
           <cell r="D52">
-            <v>3</v>
+            <v>5</v>
           </cell>
           <cell r="E52">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="F52">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="G52" t="str">
             <v>突撃</v>
@@ -1220,45 +1299,45 @@
         </row>
         <row r="53">
           <cell r="A53">
-            <v>46</v>
+            <v>4007</v>
           </cell>
           <cell r="B53" t="str">
-            <v>上級騎兵</v>
+            <v>初級槍兵</v>
           </cell>
           <cell r="C53">
             <v>1</v>
           </cell>
           <cell r="D53">
-            <v>5</v>
+            <v>1</v>
           </cell>
           <cell r="E53">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="F53">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="G53" t="str">
-            <v>突撃</v>
+            <v>挑発</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54">
-            <v>47</v>
+            <v>4008</v>
           </cell>
           <cell r="B54" t="str">
-            <v>初級槍兵</v>
+            <v>中級槍兵</v>
           </cell>
           <cell r="C54">
             <v>1</v>
           </cell>
           <cell r="D54">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="E54">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="F54">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="G54" t="str">
             <v>挑発</v>
@@ -1266,22 +1345,22 @@
         </row>
         <row r="55">
           <cell r="A55">
-            <v>48</v>
+            <v>4009</v>
           </cell>
           <cell r="B55" t="str">
-            <v>中級槍兵</v>
+            <v>上級槍兵</v>
           </cell>
           <cell r="C55">
             <v>1</v>
           </cell>
           <cell r="D55">
-            <v>3</v>
+            <v>5</v>
           </cell>
           <cell r="E55">
-            <v>2</v>
+            <v>4</v>
           </cell>
           <cell r="F55">
-            <v>4</v>
+            <v>6</v>
           </cell>
           <cell r="G55" t="str">
             <v>挑発</v>
@@ -1289,53 +1368,128 @@
         </row>
         <row r="56">
           <cell r="A56">
-            <v>49</v>
+            <v>4010</v>
           </cell>
           <cell r="B56" t="str">
-            <v>上級槍兵</v>
+            <v>矢の一撃</v>
           </cell>
           <cell r="C56">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="D56">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E56">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="F56">
-            <v>6</v>
+            <v>-1</v>
           </cell>
           <cell r="G56" t="str">
-            <v>挑発</v>
+            <v>敵1体に1ダメージ　カードを1枚引く</v>
           </cell>
         </row>
         <row r="57">
-          <cell r="A57">
-            <v>50</v>
-          </cell>
-          <cell r="B57" t="str">
-            <v>矢の一撃</v>
-          </cell>
-          <cell r="C57">
-            <v>2</v>
-          </cell>
-          <cell r="D57">
-            <v>2</v>
-          </cell>
-          <cell r="E57">
-            <v>1</v>
-          </cell>
-          <cell r="F57">
+          <cell r="A57" t="str">
+            <v>軍師</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58">
+            <v>9001</v>
+          </cell>
+          <cell r="B58" t="str">
+            <v>孫権</v>
+          </cell>
+          <cell r="C58">
+            <v>2</v>
+          </cell>
+          <cell r="D58">
+            <v>2</v>
+          </cell>
+          <cell r="E58">
             <v>-1</v>
           </cell>
-          <cell r="G57" t="str">
-            <v>1点ダメージ1ドロー</v>
+          <cell r="F58">
+            <v>-1</v>
+          </cell>
+          <cell r="G58" t="str">
+            <v>敵1体に1ダメージ　：　敵1体に2ダメージ</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59">
+            <v>9002</v>
+          </cell>
+          <cell r="B59" t="str">
+            <v>諸葛亮</v>
+          </cell>
+          <cell r="C59">
+            <v>2</v>
+          </cell>
+          <cell r="D59">
+            <v>2</v>
+          </cell>
+          <cell r="E59">
+            <v>-1</v>
+          </cell>
+          <cell r="F59">
+            <v>-1</v>
+          </cell>
+          <cell r="G59" t="str">
+            <v>2点ダメージを受け、カードを1枚引く　：　カードを1枚引く</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
+            <v>9003</v>
+          </cell>
+          <cell r="B60" t="str">
+            <v>司馬懿</v>
+          </cell>
+          <cell r="C60">
+            <v>2</v>
+          </cell>
+          <cell r="D60">
+            <v>2</v>
+          </cell>
+          <cell r="E60">
+            <v>-1</v>
+          </cell>
+          <cell r="F60">
+            <v>-1</v>
+          </cell>
+          <cell r="G60" t="str">
+            <v>敵兵士1体の攻撃力-1　：　敵兵士1体の攻撃力-2</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61">
+            <v>9004</v>
+          </cell>
+          <cell r="B61" t="str">
+            <v>董卓</v>
+          </cell>
+          <cell r="C61">
+            <v>2</v>
+          </cell>
+          <cell r="D61">
+            <v>2</v>
+          </cell>
+          <cell r="E61">
+            <v>-1</v>
+          </cell>
+          <cell r="F61">
+            <v>-1</v>
+          </cell>
+          <cell r="G61" t="str">
+            <v>初級歩兵を1体召喚</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1602,10 +1756,10 @@
   <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1686,11 +1840,11 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A2,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A2,[1]カードリスト!$A:$A,0)))</f>
-        <v>周瑜</v>
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B2,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B2,[1]カードリスト!$B:$B,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
       </c>
       <c r="C2">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A2,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A2,[1]カードリスト!$A:$A,0)))</f>
@@ -1702,15 +1856,15 @@
       </c>
       <c r="E2">
         <f>IF(INDEX([1]カードリスト!E:E,MATCH($A2,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!E:E,MATCH($A2,[1]カードリスト!$A:$A,0)))</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F2">
         <f>IF(INDEX([1]カードリスト!F:F,MATCH($A2,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!F:F,MATCH($A2,[1]カードリスト!$A:$A,0)))</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" t="str">
         <f>IF(INDEX([1]カードリスト!G:G,MATCH($A2,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!G:G,MATCH($A2,[1]カードリスト!$A:$A,0)))</f>
-        <v>雄叫び：全ての敵に3ダメージ</v>
+        <v>雄叫び：「赤壁の大火」を2枚手札に加える</v>
       </c>
       <c r="I2">
         <f>COUNTIF($D:$D,I$1)</f>
@@ -1718,11 +1872,11 @@
       </c>
       <c r="J2">
         <f t="shared" ref="J2:R2" si="1">COUNTIF($D:$D,J$1)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L2">
         <f t="shared" si="1"/>
@@ -1763,11 +1917,11 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A3,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A3,[1]カードリスト!$A:$A,0)))</f>
-        <v>陸遜</v>
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B3,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B3,[1]カードリスト!$B:$B,0)))</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
       </c>
       <c r="C3">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A3,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A3,[1]カードリスト!$A:$A,0)))</f>
@@ -1787,16 +1941,16 @@
       </c>
       <c r="G3" t="str">
         <f>IF(INDEX([1]カードリスト!G:G,MATCH($A3,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!G:G,MATCH($A3,[1]カードリスト!$A:$A,0)))</f>
-        <v>雄叫び：1枚ドロー</v>
+        <v>雄叫び：カードを1枚引く</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A4,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A4,[1]カードリスト!$A:$A,0)))</f>
-        <v>陸遜</v>
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B4,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B4,[1]カードリスト!$B:$B,0)))</f>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
       </c>
       <c r="C4">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A4,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A4,[1]カードリスト!$A:$A,0)))</f>
@@ -1816,16 +1970,16 @@
       </c>
       <c r="G4" t="str">
         <f>IF(INDEX([1]カードリスト!G:G,MATCH($A4,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!G:G,MATCH($A4,[1]カードリスト!$A:$A,0)))</f>
-        <v>雄叫び：1枚ドロー</v>
+        <v>雄叫び：カードを1枚引く</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A5,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A5,[1]カードリスト!$A:$A,0)))</f>
-        <v>陸遜</v>
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B5,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B5,[1]カードリスト!$B:$B,0)))</f>
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
       </c>
       <c r="C5">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A5,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A5,[1]カードリスト!$A:$A,0)))</f>
@@ -1845,16 +1999,16 @@
       </c>
       <c r="G5" t="str">
         <f>IF(INDEX([1]カードリスト!G:G,MATCH($A5,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!G:G,MATCH($A5,[1]カードリスト!$A:$A,0)))</f>
-        <v>雄叫び：1枚ドロー</v>
+        <v>雄叫び：カードを1枚引く</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B6,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B6,[1]カードリスト!$B:$B,0)))</f>
         <v>3</v>
       </c>
-      <c r="B6" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A6,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A6,[1]カードリスト!$A:$A,0)))</f>
-        <v>孫尚香</v>
+      <c r="B6" t="s">
+        <v>11</v>
       </c>
       <c r="C6">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A6,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A6,[1]カードリスト!$A:$A,0)))</f>
@@ -1879,11 +2033,11 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B7,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B7,[1]カードリスト!$B:$B,0)))</f>
         <v>3</v>
       </c>
-      <c r="B7" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A7,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A7,[1]カードリスト!$A:$A,0)))</f>
-        <v>孫尚香</v>
+      <c r="B7" t="s">
+        <v>11</v>
       </c>
       <c r="C7">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A7,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A7,[1]カードリスト!$A:$A,0)))</f>
@@ -1908,11 +2062,11 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B8,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B8,[1]カードリスト!$B:$B,0)))</f>
         <v>3</v>
       </c>
-      <c r="B8" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A8,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A8,[1]カードリスト!$A:$A,0)))</f>
-        <v>孫尚香</v>
+      <c r="B8" t="s">
+        <v>11</v>
       </c>
       <c r="C8">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A8,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A8,[1]カードリスト!$A:$A,0)))</f>
@@ -1937,11 +2091,11 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B9,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B9,[1]カードリスト!$B:$B,0)))</f>
         <v>4</v>
       </c>
-      <c r="B9" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A9,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A9,[1]カードリスト!$A:$A,0)))</f>
-        <v>徐夫人</v>
+      <c r="B9" t="s">
+        <v>12</v>
       </c>
       <c r="C9">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A9,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A9,[1]カードリスト!$A:$A,0)))</f>
@@ -1966,11 +2120,11 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B10,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B10,[1]カードリスト!$B:$B,0)))</f>
         <v>4</v>
       </c>
-      <c r="B10" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A10,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A10,[1]カードリスト!$A:$A,0)))</f>
-        <v>徐夫人</v>
+      <c r="B10" t="s">
+        <v>12</v>
       </c>
       <c r="C10">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A10,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A10,[1]カードリスト!$A:$A,0)))</f>
@@ -1995,11 +2149,11 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B11,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B11,[1]カードリスト!$B:$B,0)))</f>
         <v>4</v>
       </c>
-      <c r="B11" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A11,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A11,[1]カードリスト!$A:$A,0)))</f>
-        <v>徐夫人</v>
+      <c r="B11" t="s">
+        <v>12</v>
       </c>
       <c r="C11">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A11,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A11,[1]カードリスト!$A:$A,0)))</f>
@@ -2024,11 +2178,11 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B12,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B12,[1]カードリスト!$B:$B,0)))</f>
         <v>5</v>
       </c>
-      <c r="B12" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A12,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A12,[1]カードリスト!$A:$A,0)))</f>
-        <v>稲妻</v>
+      <c r="B12" t="s">
+        <v>13</v>
       </c>
       <c r="C12">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A12,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A12,[1]カードリスト!$A:$A,0)))</f>
@@ -2053,11 +2207,11 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B13,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B13,[1]カードリスト!$B:$B,0)))</f>
         <v>5</v>
       </c>
-      <c r="B13" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A13,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A13,[1]カードリスト!$A:$A,0)))</f>
-        <v>稲妻</v>
+      <c r="B13" t="s">
+        <v>13</v>
       </c>
       <c r="C13">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A13,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A13,[1]カードリスト!$A:$A,0)))</f>
@@ -2082,11 +2236,11 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B14,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B14,[1]カードリスト!$B:$B,0)))</f>
         <v>5</v>
       </c>
-      <c r="B14" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A14,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A14,[1]カードリスト!$A:$A,0)))</f>
-        <v>稲妻</v>
+      <c r="B14" t="s">
+        <v>13</v>
       </c>
       <c r="C14">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A14,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A14,[1]カードリスト!$A:$A,0)))</f>
@@ -2111,11 +2265,11 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B15,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B15,[1]カードリスト!$B:$B,0)))</f>
         <v>6</v>
       </c>
-      <c r="B15" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A15,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A15,[1]カードリスト!$A:$A,0)))</f>
-        <v>火の玉</v>
+      <c r="B15" t="s">
+        <v>14</v>
       </c>
       <c r="C15">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A15,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A15,[1]カードリスト!$A:$A,0)))</f>
@@ -2140,11 +2294,11 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B16,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B16,[1]カードリスト!$B:$B,0)))</f>
         <v>6</v>
       </c>
-      <c r="B16" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A16,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A16,[1]カードリスト!$A:$A,0)))</f>
-        <v>火の玉</v>
+      <c r="B16" t="s">
+        <v>14</v>
       </c>
       <c r="C16">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A16,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A16,[1]カードリスト!$A:$A,0)))</f>
@@ -2169,11 +2323,11 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B17,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B17,[1]カードリスト!$B:$B,0)))</f>
         <v>6</v>
       </c>
-      <c r="B17" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A17,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A17,[1]カードリスト!$A:$A,0)))</f>
-        <v>火の玉</v>
+      <c r="B17" t="s">
+        <v>14</v>
       </c>
       <c r="C17">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A17,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A17,[1]カードリスト!$A:$A,0)))</f>
@@ -2198,11 +2352,11 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B18,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B18,[1]カードリスト!$B:$B,0)))</f>
         <v>7</v>
       </c>
-      <c r="B18" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A18,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A18,[1]カードリスト!$A:$A,0)))</f>
-        <v>炎上</v>
+      <c r="B18" t="s">
+        <v>15</v>
       </c>
       <c r="C18">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A18,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A18,[1]カードリスト!$A:$A,0)))</f>
@@ -2227,11 +2381,11 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B19,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B19,[1]カードリスト!$B:$B,0)))</f>
         <v>7</v>
       </c>
-      <c r="B19" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A19,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A19,[1]カードリスト!$A:$A,0)))</f>
-        <v>炎上</v>
+      <c r="B19" t="s">
+        <v>15</v>
       </c>
       <c r="C19">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A19,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A19,[1]カードリスト!$A:$A,0)))</f>
@@ -2256,11 +2410,11 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B20,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B20,[1]カードリスト!$B:$B,0)))</f>
         <v>8</v>
       </c>
-      <c r="B20" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A20,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A20,[1]カードリスト!$A:$A,0)))</f>
-        <v>赤壁の大火</v>
+      <c r="B20" t="s">
+        <v>16</v>
       </c>
       <c r="C20">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A20,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A20,[1]カードリスト!$A:$A,0)))</f>
@@ -2285,11 +2439,11 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B21,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B21,[1]カードリスト!$B:$B,0)))</f>
         <v>8</v>
       </c>
-      <c r="B21" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A21,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A21,[1]カードリスト!$A:$A,0)))</f>
-        <v>赤壁の大火</v>
+      <c r="B21" t="s">
+        <v>16</v>
       </c>
       <c r="C21">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A21,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A21,[1]カードリスト!$A:$A,0)))</f>
@@ -2314,11 +2468,11 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B22,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B22,[1]カードリスト!$B:$B,0)))</f>
         <v>9</v>
       </c>
-      <c r="B22" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A22,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A22,[1]カードリスト!$A:$A,0)))</f>
-        <v>知性</v>
+      <c r="B22" t="s">
+        <v>17</v>
       </c>
       <c r="C22">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A22,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A22,[1]カードリスト!$A:$A,0)))</f>
@@ -2326,7 +2480,7 @@
       </c>
       <c r="D22">
         <f>IF(INDEX([1]カードリスト!D:D,MATCH($A22,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!D:D,MATCH($A22,[1]カードリスト!$A:$A,0)))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E22">
         <f>IF(INDEX([1]カードリスト!E:E,MATCH($A22,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!E:E,MATCH($A22,[1]カードリスト!$A:$A,0)))</f>
@@ -2338,16 +2492,16 @@
       </c>
       <c r="G22" t="str">
         <f>IF(INDEX([1]カードリスト!G:G,MATCH($A22,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!G:G,MATCH($A22,[1]カードリスト!$A:$A,0)))</f>
-        <v>2枚ドロー</v>
+        <v>カードを2枚引く</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B23,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B23,[1]カードリスト!$B:$B,0)))</f>
         <v>9</v>
       </c>
-      <c r="B23" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A23,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A23,[1]カードリスト!$A:$A,0)))</f>
-        <v>知性</v>
+      <c r="B23" t="s">
+        <v>17</v>
       </c>
       <c r="C23">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A23,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A23,[1]カードリスト!$A:$A,0)))</f>
@@ -2355,7 +2509,7 @@
       </c>
       <c r="D23">
         <f>IF(INDEX([1]カードリスト!D:D,MATCH($A23,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!D:D,MATCH($A23,[1]カードリスト!$A:$A,0)))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23">
         <f>IF(INDEX([1]カードリスト!E:E,MATCH($A23,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!E:E,MATCH($A23,[1]カードリスト!$A:$A,0)))</f>
@@ -2367,16 +2521,16 @@
       </c>
       <c r="G23" t="str">
         <f>IF(INDEX([1]カードリスト!G:G,MATCH($A23,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!G:G,MATCH($A23,[1]カードリスト!$A:$A,0)))</f>
-        <v>2枚ドロー</v>
+        <v>カードを2枚引く</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B24,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B24,[1]カードリスト!$B:$B,0)))</f>
         <v>9</v>
       </c>
-      <c r="B24" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A24,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A24,[1]カードリスト!$A:$A,0)))</f>
-        <v>知性</v>
+      <c r="B24" t="s">
+        <v>17</v>
       </c>
       <c r="C24">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A24,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A24,[1]カードリスト!$A:$A,0)))</f>
@@ -2384,7 +2538,7 @@
       </c>
       <c r="D24">
         <f>IF(INDEX([1]カードリスト!D:D,MATCH($A24,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!D:D,MATCH($A24,[1]カードリスト!$A:$A,0)))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E24">
         <f>IF(INDEX([1]カードリスト!E:E,MATCH($A24,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!E:E,MATCH($A24,[1]カードリスト!$A:$A,0)))</f>
@@ -2396,16 +2550,16 @@
       </c>
       <c r="G24" t="str">
         <f>IF(INDEX([1]カードリスト!G:G,MATCH($A24,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!G:G,MATCH($A24,[1]カードリスト!$A:$A,0)))</f>
-        <v>2枚ドロー</v>
+        <v>カードを2枚引く</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B25,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B25,[1]カードリスト!$B:$B,0)))</f>
         <v>10</v>
       </c>
-      <c r="B25" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A25,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A25,[1]カードリスト!$A:$A,0)))</f>
-        <v>恐怖</v>
+      <c r="B25" t="s">
+        <v>18</v>
       </c>
       <c r="C25">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A25,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A25,[1]カードリスト!$A:$A,0)))</f>
@@ -2430,11 +2584,11 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B26,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B26,[1]カードリスト!$B:$B,0)))</f>
         <v>10</v>
       </c>
-      <c r="B26" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A26,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A26,[1]カードリスト!$A:$A,0)))</f>
-        <v>恐怖</v>
+      <c r="B26" t="s">
+        <v>18</v>
       </c>
       <c r="C26">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A26,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A26,[1]カードリスト!$A:$A,0)))</f>
@@ -2459,11 +2613,11 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>42</v>
-      </c>
-      <c r="B27" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A27,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A27,[1]カードリスト!$A:$A,0)))</f>
-        <v>中級歩兵</v>
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B27,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B27,[1]カードリスト!$B:$B,0)))</f>
+        <v>4002</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
       </c>
       <c r="C27">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A27,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A27,[1]カードリスト!$A:$A,0)))</f>
@@ -2483,16 +2637,16 @@
       </c>
       <c r="G27" t="str">
         <f>IF(INDEX([1]カードリスト!G:G,MATCH($A27,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!G:G,MATCH($A27,[1]カードリスト!$A:$A,0)))</f>
-        <v/>
+        <v>無し</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>43</v>
-      </c>
-      <c r="B28" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A28,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A28,[1]カードリスト!$A:$A,0)))</f>
-        <v>上級歩兵</v>
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B28,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B28,[1]カードリスト!$B:$B,0)))</f>
+        <v>4003</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
       </c>
       <c r="C28">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A28,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A28,[1]カードリスト!$A:$A,0)))</f>
@@ -2512,16 +2666,16 @@
       </c>
       <c r="G28" t="str">
         <f>IF(INDEX([1]カードリスト!G:G,MATCH($A28,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!G:G,MATCH($A28,[1]カードリスト!$A:$A,0)))</f>
-        <v/>
+        <v>無し</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>48</v>
-      </c>
-      <c r="B29" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A29,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A29,[1]カードリスト!$A:$A,0)))</f>
-        <v>中級槍兵</v>
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B29,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B29,[1]カードリスト!$B:$B,0)))</f>
+        <v>4008</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
       </c>
       <c r="C29">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A29,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A29,[1]カードリスト!$A:$A,0)))</f>
@@ -2546,11 +2700,11 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>48</v>
-      </c>
-      <c r="B30" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A30,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A30,[1]カードリスト!$A:$A,0)))</f>
-        <v>中級槍兵</v>
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B30,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B30,[1]カードリスト!$B:$B,0)))</f>
+        <v>4008</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
       </c>
       <c r="C30">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A30,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A30,[1]カードリスト!$A:$A,0)))</f>
@@ -2575,11 +2729,11 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>49</v>
-      </c>
-      <c r="B31" t="str">
-        <f>IF(INDEX([1]カードリスト!B:B,MATCH($A31,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!B:B,MATCH($A31,[1]カードリスト!$A:$A,0)))</f>
-        <v>上級槍兵</v>
+        <f>IF(INDEX([1]カードリスト!A:A,MATCH($B31,[1]カードリスト!$B:$B,0))="","",INDEX([1]カードリスト!A:A,MATCH($B31,[1]カードリスト!$B:$B,0)))</f>
+        <v>4009</v>
+      </c>
+      <c r="B31" t="s">
+        <v>22</v>
       </c>
       <c r="C31">
         <f>IF(INDEX([1]カードリスト!C:C,MATCH($A31,[1]カードリスト!$A:$A,0))="","",INDEX([1]カードリスト!C:C,MATCH($A31,[1]カードリスト!$A:$A,0)))</f>
